--- a/7/2/1/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/1/2/Hogares e IPSFL 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>Serie</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -644,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4962,58 +4965,117 @@
         <v>90</v>
       </c>
       <c r="B74">
-        <v>26866</v>
+        <v>27028</v>
       </c>
       <c r="C74">
-        <v>7558</v>
+        <v>7548</v>
       </c>
       <c r="D74">
-        <v>-977</v>
+        <v>-1249</v>
       </c>
       <c r="E74">
         <v>2201</v>
       </c>
       <c r="F74">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G74">
-        <v>36651</v>
+        <v>36535</v>
       </c>
       <c r="H74">
-        <v>33568</v>
+        <v>33451</v>
       </c>
       <c r="I74">
         <v>4657</v>
       </c>
       <c r="J74">
-        <v>41308</v>
+        <v>41192</v>
       </c>
       <c r="K74">
-        <v>37745</v>
+        <v>37827</v>
       </c>
       <c r="L74">
         <v>-902</v>
       </c>
       <c r="M74">
-        <v>2661</v>
+        <v>2463</v>
       </c>
       <c r="N74">
-        <v>1855</v>
+        <v>1815</v>
       </c>
       <c r="O74">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="P74">
-        <v>1052</v>
+        <v>910</v>
       </c>
       <c r="Q74">
-        <v>2661</v>
+        <v>2463</v>
       </c>
       <c r="R74">
         <v>2912</v>
       </c>
       <c r="S74">
-        <v>-251</v>
+        <v>-450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75">
+        <v>26421</v>
+      </c>
+      <c r="C75">
+        <v>6965</v>
+      </c>
+      <c r="D75">
+        <v>-1046</v>
+      </c>
+      <c r="E75">
+        <v>9674</v>
+      </c>
+      <c r="F75">
+        <v>4580</v>
+      </c>
+      <c r="G75">
+        <v>46594</v>
+      </c>
+      <c r="H75">
+        <v>36238</v>
+      </c>
+      <c r="I75">
+        <v>5186</v>
+      </c>
+      <c r="J75">
+        <v>51780</v>
+      </c>
+      <c r="K75">
+        <v>40006</v>
+      </c>
+      <c r="L75">
+        <v>-8347</v>
+      </c>
+      <c r="M75">
+        <v>3426</v>
+      </c>
+      <c r="N75">
+        <v>1898</v>
+      </c>
+      <c r="O75">
+        <v>385</v>
+      </c>
+      <c r="P75">
+        <v>1913</v>
+      </c>
+      <c r="Q75">
+        <v>3426</v>
+      </c>
+      <c r="R75">
+        <v>2719</v>
+      </c>
+      <c r="S75">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
